--- a/app/Licenciatura_em_Teatro.xlsx
+++ b/app/Licenciatura_em_Teatro.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -184,9 +184,6 @@
     <t>Luisa Ranito Homo</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t xml:space="preserve">Alcina Lopes </t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>030104964129M</t>
   </si>
   <si>
@@ -250,9 +244,6 @@
     <t>Judite Alberto Fumo</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -304,9 +295,6 @@
     <t>Alzira Paulo</t>
   </si>
   <si>
-    <t>Distrito de Manica</t>
-  </si>
-  <si>
     <t>060102027578N</t>
   </si>
   <si>
@@ -331,9 +319,6 @@
     <t>Rosalina Saveca</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110300013799Q</t>
   </si>
   <si>
@@ -382,9 +367,6 @@
     <t>Tuaira Jabre Atmane</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090101299786N</t>
   </si>
   <si>
@@ -409,9 +391,6 @@
     <t xml:space="preserve">Marilia Dos Anjos Alzira </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100457500S</t>
   </si>
   <si>
@@ -481,9 +460,6 @@
     <t>Virginia Lazaro Nhacucame</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Casado</t>
   </si>
   <si>
@@ -596,9 +572,6 @@
   </si>
   <si>
     <t>Arminda Colete</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
   </si>
   <si>
     <t>030100413503A</t>
@@ -1864,7 +1837,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1880,7 +1853,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1896,7 +1869,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1912,7 +1885,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1928,7 +1901,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1943,9 +1916,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -1953,7 +1924,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -1964,7 +1935,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1973,7 +1944,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -1985,7 +1956,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -1993,7 +1964,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2089,7 +2060,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2132,7 +2103,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2459,7 +2430,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2475,7 +2446,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2491,7 +2462,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2507,7 +2478,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2523,7 +2494,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2538,9 +2509,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2548,7 +2517,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2559,7 +2528,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2568,7 +2537,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2580,7 +2549,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2588,7 +2557,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2684,7 +2653,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2727,7 +2696,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3054,7 +3023,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3070,7 +3039,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3086,7 +3055,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3102,7 +3071,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3118,7 +3087,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3133,9 +3102,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3143,7 +3110,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3154,7 +3121,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3163,7 +3130,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3175,7 +3142,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3279,7 +3246,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3322,7 +3289,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3649,7 +3616,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3665,7 +3632,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3681,7 +3648,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3697,7 +3664,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3713,7 +3680,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3728,9 +3695,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>148</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3738,7 +3703,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3749,7 +3714,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3758,7 +3723,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3770,7 +3735,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3778,7 +3743,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3874,7 +3839,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3917,7 +3882,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4244,7 +4209,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4260,7 +4225,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4276,7 +4241,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4292,7 +4257,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4308,7 +4273,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4323,9 +4288,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4333,7 +4296,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4344,7 +4307,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4353,7 +4316,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4365,7 +4328,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4373,7 +4336,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4469,7 +4432,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4512,7 +4475,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4839,7 +4802,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4855,7 +4818,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4871,7 +4834,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4887,7 +4850,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4903,7 +4866,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4918,9 +4881,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>148</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4928,7 +4889,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4939,7 +4900,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4948,7 +4909,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4960,7 +4921,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4968,7 +4929,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5064,7 +5025,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5107,7 +5068,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5434,7 +5395,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5450,7 +5411,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5466,7 +5427,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5482,7 +5443,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5498,7 +5459,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5513,9 +5474,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5523,7 +5482,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5534,7 +5493,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5543,7 +5502,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5555,7 +5514,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5563,7 +5522,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5659,7 +5618,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5702,7 +5661,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6029,7 +5988,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6045,7 +6004,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6061,7 +6020,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6077,7 +6036,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6093,7 +6052,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6108,9 +6067,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6118,7 +6075,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6129,7 +6086,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6138,7 +6095,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6150,7 +6107,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6158,7 +6115,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6254,7 +6211,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6297,7 +6254,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6624,7 +6581,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6640,7 +6597,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6656,7 +6613,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6672,7 +6629,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6688,7 +6645,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6703,9 +6660,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6713,7 +6668,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6724,7 +6679,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6733,7 +6688,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6745,7 +6700,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6753,7 +6708,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6849,7 +6804,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6892,7 +6847,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7326,9 +7281,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7336,7 +7289,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7347,7 +7300,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7356,7 +7309,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7368,7 +7321,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7376,7 +7329,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7472,7 +7425,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7515,7 +7468,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7870,7 +7823,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7886,7 +7839,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7902,7 +7855,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7918,7 +7871,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7934,7 +7887,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7949,9 +7902,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7959,7 +7910,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7970,7 +7921,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7979,7 +7930,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7991,7 +7942,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7999,7 +7950,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8095,7 +8046,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8138,7 +8089,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8465,7 +8416,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8481,7 +8432,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8497,7 +8448,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8513,7 +8464,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8529,7 +8480,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8544,9 +8495,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8554,7 +8503,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8565,7 +8514,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8574,7 +8523,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8586,7 +8535,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8594,7 +8543,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8690,7 +8639,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8733,7 +8682,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9060,7 +9009,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9076,7 +9025,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9092,7 +9041,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9108,7 +9057,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9124,7 +9073,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9139,9 +9088,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9149,7 +9096,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9160,7 +9107,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9169,7 +9116,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9181,7 +9128,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9189,7 +9136,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9285,7 +9232,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9328,7 +9275,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9655,7 +9602,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9671,7 +9618,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9687,7 +9634,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9703,7 +9650,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9719,7 +9666,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9734,9 +9681,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9744,7 +9689,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9755,7 +9700,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9764,7 +9709,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9776,7 +9721,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9784,7 +9729,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9880,7 +9825,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9923,7 +9868,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10250,7 +10195,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10266,7 +10211,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10282,7 +10227,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10298,7 +10243,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10314,7 +10259,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10329,9 +10274,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10339,7 +10282,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10350,7 +10293,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10359,7 +10302,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10371,7 +10314,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10379,7 +10322,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10475,7 +10418,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10518,7 +10461,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10845,7 +10788,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10861,7 +10804,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10877,7 +10820,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10893,7 +10836,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10909,7 +10852,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10924,9 +10867,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10934,7 +10875,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10945,7 +10886,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10954,7 +10895,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10966,7 +10907,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10974,7 +10915,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11070,7 +11011,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11113,7 +11054,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11440,7 +11381,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11456,7 +11397,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11472,7 +11413,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11488,7 +11429,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11504,7 +11445,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11519,9 +11460,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11529,7 +11468,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11540,7 +11479,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11549,7 +11488,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11561,7 +11500,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11569,7 +11508,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11665,7 +11604,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11708,7 +11647,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
